--- a/bin/Debug/BON DE LIVRAISON.xlsx
+++ b/bin/Debug/BON DE LIVRAISON.xlsx
@@ -209,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -272,43 +272,46 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -675,7 +678,7 @@
   <dimension ref="A10:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,8 +710,8 @@
       <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -725,8 +728,8 @@
       <c r="G11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -743,8 +746,8 @@
       <c r="G12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -761,242 +764,242 @@
       <c r="G13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="31"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
       <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
       <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
       <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
       <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
       <c r="I36" s="13"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -1010,11 +1013,11 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="25" t="s">
+      <c r="F38" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
       <c r="I38" s="15"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1023,11 +1026,11 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
       <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1053,19 +1056,19 @@
       <c r="I41" s="20"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
       <c r="D43" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -1076,16 +1079,29 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="49">
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="G33:H33"/>
@@ -1098,33 +1114,20 @@
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="A35:E35"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.11811023622047245" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId2"/>
